--- a/assets/dolar_blue1.xlsx
+++ b/assets/dolar_blue1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Downloads\app_var_fin_1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -226,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:I48" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:I48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:I49" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:I49"/>
   <tableColumns count="9">
     <tableColumn id="1" name="meses" dataDxfId="2"/>
     <tableColumn id="2" name="IPC" dataDxfId="1"/>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,15 +1909,13 @@
         <v>45200</v>
       </c>
       <c r="B48">
-        <f>+B47*1.12</f>
-        <v>908.0655830914053</v>
+        <v>878.06698793570695</v>
       </c>
       <c r="C48">
-        <f>+C47*1.15</f>
-        <v>1010.4359999999999</v>
+        <v>945.41664000000003</v>
       </c>
       <c r="D48">
-        <v>761.07756436538671</v>
+        <v>796.41656885548446</v>
       </c>
       <c r="E48">
         <v>1158.1066903782942</v>
@@ -1934,6 +1932,13 @@
       <c r="I48">
         <v>451.1509202632655</v>
       </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>45231</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/dolar_blue1.xlsx
+++ b/assets/dolar_blue1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin_1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -124,6 +124,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,37 +1910,59 @@
       <c r="A48" s="5">
         <v>45200</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
         <v>878.06698793570695</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>945.41664000000003</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="6">
         <v>796.41656885548446</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="6">
         <v>1158.1066903782942</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <v>1147.9550416581988</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="6">
         <v>1004.1848487243877</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="6">
         <v>1058.0554833847536</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="6">
         <v>451.1509202632655</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>45231</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="1">
+        <v>983.43502648799188</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1049.4124704000001</v>
+      </c>
+      <c r="D49" s="6">
+        <v>741.17621744305086</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1119.99151680102</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1155.962799448864</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1007.9124698279884</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1417.3552203308652</v>
+      </c>
+      <c r="I49" s="6">
+        <v>501.15197675604321</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/dolar_blue1.xlsx
+++ b/assets/dolar_blue1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin_1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Downloads\app_var_fin-main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -52,9 +52,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -89,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -108,12 +109,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -125,6 +135,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:I49" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:I49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:I50" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:I50"/>
   <tableColumns count="9">
     <tableColumn id="1" name="meses" dataDxfId="2"/>
     <tableColumn id="2" name="IPC" dataDxfId="1"/>
@@ -531,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,7 +1488,7 @@
         <v>204.26364665955558</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>44743</v>
       </c>
@@ -1500,7 +1517,7 @@
         <v>210.92917503595368</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>44774</v>
       </c>
@@ -1529,7 +1546,7 @@
         <v>218.19373564522786</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>44805</v>
       </c>
@@ -1558,7 +1575,7 @@
         <v>226.88208995205309</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>44835</v>
       </c>
@@ -1587,7 +1604,7 @@
         <v>236.6339699066211</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>44866</v>
       </c>
@@ -1616,7 +1633,7 @@
         <v>247.15844089834602</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>44896</v>
       </c>
@@ -1645,7 +1662,7 @@
         <v>258.1280130314658</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>44927</v>
       </c>
@@ -1674,7 +1691,7 @@
         <v>269.63242656310683</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>44958</v>
       </c>
@@ -1703,7 +1720,7 @@
         <v>281.67737826730951</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>44986</v>
       </c>
@@ -1732,7 +1749,7 @@
         <v>294.26910611234251</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>45017</v>
       </c>
@@ -1761,7 +1778,7 @@
         <v>307.60653112221326</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>45047</v>
       </c>
@@ -1790,7 +1807,7 @@
         <v>322.07420549591245</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>45078</v>
       </c>
@@ -1819,7 +1836,7 @@
         <v>339.55495701589632</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>45108</v>
       </c>
@@ -1848,7 +1865,7 @@
         <v>358.44477149483447</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45139</v>
       </c>
@@ -1877,7 +1894,7 @@
         <v>378.4101382774237</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>45170</v>
       </c>
@@ -1905,8 +1922,13 @@
       <c r="I47">
         <v>402.93264477157965</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>45200</v>
       </c>
@@ -1935,15 +1957,15 @@
         <v>451.1509202632655</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>45231</v>
       </c>
       <c r="B49" s="1">
-        <v>983.43502648799188</v>
+        <v>990.45956239147733</v>
       </c>
       <c r="C49" s="3">
-        <v>1049.4124704000001</v>
+        <v>1050.3578870399999</v>
       </c>
       <c r="D49" s="6">
         <v>741.17621744305086</v>
@@ -1963,6 +1985,44 @@
       <c r="I49" s="6">
         <v>501.15197675604321</v>
       </c>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>45261</v>
+      </c>
+      <c r="B50" s="8">
+        <v>1238.0744529893466</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1281.4366221887999</v>
+      </c>
+      <c r="D50" s="10">
+        <v>833.46225316993537</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1288.8315694837127</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1326.1013150278357</v>
+      </c>
+      <c r="G50" s="10">
+        <v>1104.395661489458</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1596.757110924912</v>
+      </c>
+      <c r="I50" s="10">
+        <v>542.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
